--- a/ResultadoEleicoesDistritos/FARO_TAVIRA.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_TAVIRA.xlsx
@@ -597,61 +597,61 @@
         <v>6395</v>
       </c>
       <c r="H2" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="I2" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J2" t="n">
-        <v>2653</v>
+        <v>2644</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S2" t="n">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="T2" t="n">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="U2" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>4033</v>
+        <v>4078</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="n">
         <v>28</v>
